--- a/data/trans_dic/RUIDO_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Clase-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.6804224248031232</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6823051862455831</v>
+        <v>0.6823051862455832</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6282184968830761</v>
+        <v>0.6263735118345815</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6306032246020247</v>
+        <v>0.6279539306994908</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6423247996966567</v>
+        <v>0.6431319428568966</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7383120603108099</v>
+        <v>0.7356487438725015</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7326872623890098</v>
+        <v>0.7294500294301244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7192132255524863</v>
+        <v>0.7195033618231857</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.6987491440845268</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.799832982622766</v>
+        <v>0.7998329826227659</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7418417246608099</v>
+        <v>0.7418417246608097</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6383665600086956</v>
+        <v>0.63736283919221</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7433170084884988</v>
+        <v>0.7443777751616462</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7033189231444926</v>
+        <v>0.6994646548293844</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7498001343863899</v>
+        <v>0.7541272162360543</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8402410388574769</v>
+        <v>0.843482817428877</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7794767921796573</v>
+        <v>0.7761724433428844</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7887012437631076</v>
+        <v>0.7887012437631075</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.8232185639678393</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7302643671018664</v>
+        <v>0.7302026381044672</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7487459618696791</v>
+        <v>0.7501375658341315</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7519959160808873</v>
+        <v>0.7541397961018249</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8381921162856617</v>
+        <v>0.8398913942649636</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.878673888983362</v>
+        <v>0.8783427561901431</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.841933240549941</v>
+        <v>0.8343922397200596</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7902248884739441</v>
+        <v>0.7902248884739442</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7633103553927726</v>
+        <v>0.7633103553927725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7786783977519678</v>
+        <v>0.7786783977519677</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7446210606073629</v>
+        <v>0.7503379375393502</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7256206174935457</v>
+        <v>0.7280855986048969</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7482120474557181</v>
+        <v>0.7507530752550836</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8250324424028432</v>
+        <v>0.8288844870380452</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7969763489692859</v>
+        <v>0.8006737230308919</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8042465769447853</v>
+        <v>0.8027962887736784</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.8273640635869735</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8418632429345013</v>
+        <v>0.8418632429345014</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.8359938896401546</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7766441026094089</v>
+        <v>0.7748048815041965</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8098566956673661</v>
+        <v>0.8137758771040424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8055315867546314</v>
+        <v>0.809935538156888</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8689308758962806</v>
+        <v>0.8742712620818683</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8688070654594786</v>
+        <v>0.8713857760884814</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8591717138403451</v>
+        <v>0.8608921382277014</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.7010693332902044</v>
+        <v>0.7010693332902045</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.8132934370877365</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5423918781778769</v>
+        <v>0.5411235218292296</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7737232861803583</v>
+        <v>0.7754907879686944</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7439475652912971</v>
+        <v>0.7470104802564379</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8295764062979546</v>
+        <v>0.8285351754764528</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.850178258593013</v>
+        <v>0.8491923810848829</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8290136702232447</v>
+        <v>0.8308600629589979</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.7896055567209234</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7743794140298007</v>
+        <v>0.7743794140298006</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7345619968229342</v>
+        <v>0.7350070402861414</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7722384487170877</v>
+        <v>0.7721319856984695</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7590602333120817</v>
+        <v>0.7599632439599131</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7793870771178182</v>
+        <v>0.7803648474470433</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8077303257797288</v>
+        <v>0.8069718903124969</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7874871208366251</v>
+        <v>0.7887050059812323</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>179219</v>
+        <v>178693</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>148386</v>
+        <v>147763</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>334388</v>
+        <v>334808</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>210627</v>
+        <v>209867</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>172407</v>
+        <v>171645</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>374415</v>
+        <v>374566</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>173698</v>
+        <v>173425</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>150293</v>
+        <v>150508</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>333578</v>
+        <v>331750</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>204019</v>
+        <v>205197</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>169891</v>
+        <v>170546</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>369699</v>
+        <v>368132</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>183452</v>
+        <v>183436</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>69519</v>
+        <v>69648</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>258732</v>
+        <v>259469</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>210565</v>
+        <v>210992</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>81582</v>
+        <v>81551</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>289676</v>
+        <v>287081</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>423680</v>
+        <v>426933</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>310201</v>
+        <v>311255</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>745582</v>
+        <v>748114</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>469433</v>
+        <v>471624</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>340706</v>
+        <v>342286</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>801420</v>
+        <v>799974</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>211705</v>
+        <v>211204</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>324586</v>
+        <v>326156</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>542432</v>
+        <v>545398</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>236862</v>
+        <v>238318</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>348213</v>
+        <v>349246</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>578552</v>
+        <v>579711</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>61278</v>
+        <v>61135</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>352745</v>
+        <v>353551</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>423218</v>
+        <v>424961</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>93723</v>
+        <v>93605</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>387601</v>
+        <v>387152</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>471611</v>
+        <v>472661</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1295141</v>
+        <v>1295925</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1401261</v>
+        <v>1401068</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2715683</v>
+        <v>2718914</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1374174</v>
+        <v>1375898</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1465663</v>
+        <v>1464287</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2817386</v>
+        <v>2821743</v>
       </c>
     </row>
     <row r="32">
